--- a/data/trans_dic/P21D_3_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P21D_3_R-Provincia-trans_dic.xlsx
@@ -640,10 +640,10 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.01510989252930557</v>
+        <v>0.01515981315044787</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.009063610511317934</v>
+        <v>0.008926144215393429</v>
       </c>
     </row>
     <row r="10">
@@ -691,10 +691,10 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.01974818510074631</v>
+        <v>0.01953398895364316</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01448007134547663</v>
+        <v>0.01166146676147606</v>
       </c>
     </row>
     <row r="13">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.005885797257897868</v>
+        <v>0.005885797257897867</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0</v>
@@ -827,11 +827,11 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03048162611840654</v>
+        <v>0.02976216484787547</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.0152133700444781</v>
+        <v>0.01575040295208859</v>
       </c>
     </row>
     <row r="22">
@@ -879,10 +879,10 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.01007867122215045</v>
+        <v>0.01134832599099641</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.005043958246036984</v>
+        <v>0.004484962223805591</v>
       </c>
     </row>
     <row r="25">
@@ -960,10 +960,10 @@
         <v>0</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.000328038622983793</v>
+        <v>0.0003309811454637559</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.0002274175890950075</v>
+        <v>0.0002274470431892776</v>
       </c>
     </row>
     <row r="30">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.002378676745525109</v>
+        <v>0.002409872754896289</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.003270776074898455</v>
+        <v>0.003188023056097002</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.002114865679117274</v>
+        <v>0.001975663190756929</v>
       </c>
     </row>
     <row r="31">
@@ -1202,10 +1202,10 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>3819</v>
+        <v>3831</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4300</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="12">
@@ -1270,10 +1270,10 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>2890</v>
+        <v>2859</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3466</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="16">
@@ -1457,11 +1457,11 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3866</v>
+        <v>3775</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>3660</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="28">
@@ -1526,10 +1526,10 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>3590</v>
+        <v>4042</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>3576</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="32">
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>743</v>
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3730</v>
+        <v>3779</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>5550</v>
+        <v>5410</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>6905</v>
+        <v>6451</v>
       </c>
     </row>
     <row r="40">
